--- a/pathways/data/final_energy_mapping.xlsx
+++ b/pathways/data/final_energy_mapping.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/pathways/pathways/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C311A609-7AAB-3C4E-A0DD-D5569AB02201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1E476-59B0-5F44-8473-30EFDEAA49A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{B564EF07-4632-0E48-BA36-31480B320BC9}"/>
+    <workbookView xWindow="2600" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{B564EF07-4632-0E48-BA36-31480B320BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="318">
   <si>
     <t>sector</t>
   </si>
@@ -764,24 +764,12 @@
     <t>heat</t>
   </si>
   <si>
-    <t>heat, district or industrial</t>
-  </si>
-  <si>
-    <t>market for hydrogen, gaseous</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous</t>
-  </si>
-  <si>
     <t>diesel, burned in diesel-electric generating set, 10MW</t>
   </si>
   <si>
     <t>natural gas, burned in gas turbine</t>
   </si>
   <si>
-    <t>diesel, burned in diesel-electric generating set, 18.5kW</t>
-  </si>
-  <si>
     <t>heat production, at 110 MW concentrating solar power plant, with thermal energy storage</t>
   </si>
   <si>
@@ -888,6 +876,123 @@
   </si>
   <si>
     <t>diesel blend, burned in heavy-duty vehicle</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>kilowatt hour</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>Freight (air)</t>
+  </si>
+  <si>
+    <t>Freight (heavy truck)</t>
+  </si>
+  <si>
+    <t>Freight (Intl. Shipping)</t>
+  </si>
+  <si>
+    <t>Freight (med. Truck)</t>
+  </si>
+  <si>
+    <t>Freight (nat. Shipping)</t>
+  </si>
+  <si>
+    <t>Freight (train)</t>
+  </si>
+  <si>
+    <t>diesel, burned in passenger train</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, 1MW electrical, lean burn</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Coal</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Electricity</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Gas (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Liquid (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Modern Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Space Heating|Traditional Biomass</t>
+  </si>
+  <si>
+    <t>Residential (space heating)</t>
+  </si>
+  <si>
+    <t>Residential (water heating)</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Coal</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Electricity</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Gas (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Liquid (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Modern Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Residential|Water Heating|Traditional Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Coal</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Electricity</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Gas (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Liquid (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Modern Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Space Heating|Traditional Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Coal</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Electricity</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Gas (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Liquid (fossil)</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Modern Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Commercial|Water Heating|Traditional Biomass</t>
+  </si>
+  <si>
+    <t>Commercial (space heating)</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E66" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1362,7 @@
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1387,11 @@
       <c r="H1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1410,11 @@
       <c r="H2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1317,13 +1428,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1337,13 +1451,16 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1357,13 +1474,16 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1377,13 +1497,16 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1397,13 +1520,16 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H7" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1417,13 +1543,16 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1442,8 +1571,11 @@
       <c r="H9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1457,13 +1589,16 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1477,13 +1612,16 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1497,13 +1635,16 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1517,13 +1658,16 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1537,13 +1681,16 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1557,13 +1704,16 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1588,8 +1738,11 @@
       <c r="H16" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1609,13 +1762,16 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1632,13 +1788,16 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1658,13 +1817,16 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1678,13 +1840,16 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1695,16 +1860,19 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H21" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1718,16 +1886,19 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H22" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1738,16 +1909,19 @@
         <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1761,13 +1935,16 @@
         <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1781,13 +1958,16 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1804,13 +1984,16 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H26" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1827,13 +2010,16 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H27" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1858,8 +2044,11 @@
       <c r="H28" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1879,13 +2068,16 @@
         <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1902,13 +2094,16 @@
         <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1928,13 +2123,16 @@
         <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1948,13 +2146,16 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1968,13 +2169,16 @@
         <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1991,13 +2195,16 @@
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2011,13 +2218,16 @@
         <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H35" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2031,13 +2241,16 @@
         <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H36" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2051,13 +2264,16 @@
         <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H37" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2074,13 +2290,16 @@
         <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2097,13 +2316,16 @@
         <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2344,11 @@
       <c r="H40" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2137,13 +2362,16 @@
         <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2157,13 +2385,16 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2177,13 +2408,16 @@
         <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2197,13 +2431,16 @@
         <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2217,13 +2454,16 @@
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2237,13 +2477,16 @@
         <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2265,8 +2508,11 @@
       <c r="H47" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2283,13 +2529,16 @@
         <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2303,13 +2552,16 @@
         <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H49" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2326,13 +2578,16 @@
         <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2346,13 +2601,16 @@
         <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2369,13 +2627,16 @@
         <v>86</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2392,13 +2653,16 @@
         <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2420,8 +2684,11 @@
       <c r="H54" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2438,13 +2705,16 @@
         <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2461,13 +2731,16 @@
         <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2481,13 +2754,16 @@
         <v>97</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H57" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2501,13 +2777,16 @@
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2521,13 +2800,16 @@
         <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2541,13 +2823,16 @@
         <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H60" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2561,13 +2846,16 @@
         <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2581,13 +2869,16 @@
         <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H62" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2604,13 +2895,16 @@
         <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2627,13 +2921,16 @@
         <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2652,8 +2949,11 @@
       <c r="H65" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2667,13 +2967,16 @@
         <v>108</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2687,13 +2990,16 @@
         <v>109</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2707,13 +3013,16 @@
         <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2727,13 +3036,16 @@
         <v>111</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H69" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2755,8 +3067,11 @@
       <c r="H70" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2773,13 +3088,16 @@
         <v>114</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2793,13 +3111,16 @@
         <v>115</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2816,13 +3137,16 @@
         <v>116</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2836,13 +3160,16 @@
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I74" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2856,13 +3183,16 @@
         <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H75" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2876,13 +3206,16 @@
         <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H76" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2896,13 +3229,16 @@
         <v>119</v>
       </c>
       <c r="G77" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2916,13 +3252,16 @@
         <v>120</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2936,13 +3275,16 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H79" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2956,13 +3298,16 @@
         <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2976,13 +3321,16 @@
         <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H81" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3004,8 +3352,11 @@
       <c r="H82" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3022,13 +3373,16 @@
         <v>130</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3045,13 +3399,16 @@
         <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H84" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3068,13 +3425,16 @@
         <v>132</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H85" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3088,13 +3448,16 @@
         <v>127</v>
       </c>
       <c r="G86" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3108,13 +3471,16 @@
         <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H87" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3128,13 +3494,16 @@
         <v>134</v>
       </c>
       <c r="G88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I88" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3148,13 +3517,16 @@
         <v>135</v>
       </c>
       <c r="G89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H89" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3168,13 +3540,16 @@
         <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3188,13 +3563,16 @@
         <v>128</v>
       </c>
       <c r="G91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3208,13 +3586,16 @@
         <v>137</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3228,13 +3609,16 @@
         <v>138</v>
       </c>
       <c r="G93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H93" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3245,7 +3629,7 @@
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G94" t="s">
         <v>233</v>
@@ -3253,8 +3637,11 @@
       <c r="H94" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3265,16 +3652,19 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3285,16 +3675,19 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3305,16 +3698,19 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G97" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H97" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3325,16 +3721,19 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H98" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3345,16 +3744,19 @@
         <v>166</v>
       </c>
       <c r="F99" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G99" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H99" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3365,16 +3767,19 @@
         <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H100" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3385,16 +3790,19 @@
         <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3405,16 +3813,19 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3425,73 +3836,76 @@
         <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H103" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>167</v>
-      </c>
-      <c r="F104" t="s">
-        <v>153</v>
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>291</v>
       </c>
       <c r="G104" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="H104" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
-      </c>
-      <c r="F105" t="s">
-        <v>154</v>
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>292</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H105" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="E106" t="s">
-        <v>168</v>
-      </c>
-      <c r="F106" t="s">
-        <v>155</v>
+      <c r="D106" t="s">
+        <v>293</v>
       </c>
       <c r="G106" t="s">
         <v>238</v>
@@ -3499,339 +3913,390 @@
       <c r="H106" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" t="s">
-        <v>169</v>
-      </c>
-      <c r="F107" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>294</v>
       </c>
       <c r="G107" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="H107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I107" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>170</v>
-      </c>
-      <c r="F108" t="s">
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>295</v>
       </c>
       <c r="G108" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H108" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" t="s">
-        <v>171</v>
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>296</v>
       </c>
       <c r="G109" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H109" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" t="s">
-        <v>158</v>
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>299</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H110" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
-      </c>
-      <c r="F111" t="s">
-        <v>159</v>
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>300</v>
       </c>
       <c r="G111" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="H111" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
-      </c>
-      <c r="F112" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>301</v>
       </c>
       <c r="G112" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="H112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="I112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" t="s">
-        <v>161</v>
+      <c r="D113" t="s">
+        <v>302</v>
       </c>
       <c r="G113" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H113" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
-        <v>84</v>
-      </c>
-      <c r="F114" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>303</v>
       </c>
       <c r="G114" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H114" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" t="s">
-        <v>172</v>
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>304</v>
       </c>
       <c r="G115" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="H115" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>305</v>
       </c>
       <c r="G116" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="H116" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>306</v>
+      </c>
+      <c r="G117" t="s">
+        <v>233</v>
+      </c>
+      <c r="H117" t="s">
+        <v>234</v>
+      </c>
+      <c r="I117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" t="s">
+        <v>317</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>307</v>
+      </c>
+      <c r="G118" t="s">
+        <v>238</v>
+      </c>
+      <c r="H118" t="s">
+        <v>239</v>
+      </c>
+      <c r="I118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>308</v>
+      </c>
+      <c r="G119" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119" t="s">
+        <v>240</v>
+      </c>
+      <c r="I119" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" t="s">
+        <v>245</v>
+      </c>
+      <c r="H120" t="s">
+        <v>240</v>
+      </c>
+      <c r="I120" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" t="s">
+        <v>317</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>310</v>
+      </c>
+      <c r="G121" t="s">
+        <v>245</v>
+      </c>
+      <c r="H121" t="s">
+        <v>240</v>
+      </c>
+      <c r="I121" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" t="s">
         <v>21</v>
       </c>
-      <c r="F117" t="s">
-        <v>164</v>
-      </c>
-      <c r="G117" t="s">
-        <v>268</v>
-      </c>
-      <c r="H117" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" t="s">
-        <v>216</v>
-      </c>
-      <c r="G118" t="s">
-        <v>233</v>
-      </c>
-      <c r="H118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>173</v>
-      </c>
-      <c r="B119" t="s">
-        <v>224</v>
-      </c>
-      <c r="D119" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" t="s">
-        <v>217</v>
-      </c>
-      <c r="G119" t="s">
-        <v>274</v>
-      </c>
-      <c r="H119" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" t="s">
-        <v>224</v>
-      </c>
-      <c r="D120" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" t="s">
-        <v>218</v>
-      </c>
-      <c r="G120" t="s">
-        <v>277</v>
-      </c>
-      <c r="H120" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" t="s">
-        <v>224</v>
-      </c>
-      <c r="D121" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" t="s">
-        <v>219</v>
-      </c>
-      <c r="G121" t="s">
-        <v>272</v>
-      </c>
-      <c r="H121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>173</v>
-      </c>
-      <c r="B122" t="s">
-        <v>225</v>
-      </c>
       <c r="D122" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="G122" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H122" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>297</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="G123" t="s">
         <v>233</v>
@@ -3839,322 +4304,451 @@
       <c r="H123" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c r="G124" t="s">
+        <v>238</v>
+      </c>
+      <c r="H124" t="s">
+        <v>239</v>
+      </c>
+      <c r="I124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>314</v>
+      </c>
+      <c r="G125" t="s">
+        <v>266</v>
+      </c>
+      <c r="H125" t="s">
+        <v>240</v>
+      </c>
+      <c r="I125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>315</v>
+      </c>
+      <c r="G126" t="s">
         <v>245</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H126" t="s">
+        <v>240</v>
+      </c>
+      <c r="I126" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>316</v>
+      </c>
+      <c r="G127" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>173</v>
-      </c>
-      <c r="B125" t="s">
-        <v>225</v>
-      </c>
-      <c r="D125" t="s">
-        <v>181</v>
-      </c>
-      <c r="G125" t="s">
-        <v>250</v>
-      </c>
-      <c r="H125" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" t="s">
-        <v>182</v>
-      </c>
-      <c r="G126" t="s">
-        <v>275</v>
-      </c>
-      <c r="H126" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" t="s">
-        <v>225</v>
-      </c>
-      <c r="E127" t="s">
-        <v>220</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
+        <v>240</v>
+      </c>
+      <c r="I127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>167</v>
+      </c>
+      <c r="F128" t="s">
+        <v>153</v>
+      </c>
+      <c r="G128" t="s">
         <v>233</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H128" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" t="s">
-        <v>225</v>
-      </c>
-      <c r="E128" t="s">
-        <v>221</v>
-      </c>
-      <c r="G128" t="s">
-        <v>274</v>
-      </c>
-      <c r="H128" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" t="s">
-        <v>183</v>
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" t="s">
+        <v>154</v>
       </c>
       <c r="G129" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H129" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I129" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" t="s">
-        <v>184</v>
+        <v>152</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>168</v>
+      </c>
+      <c r="F130" t="s">
+        <v>155</v>
       </c>
       <c r="G130" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H130" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="I130" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" t="s">
-        <v>185</v>
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" t="s">
+        <v>156</v>
       </c>
       <c r="G131" t="s">
+        <v>289</v>
+      </c>
+      <c r="H131" t="s">
+        <v>290</v>
+      </c>
+      <c r="I131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" t="s">
+        <v>247</v>
+      </c>
+      <c r="H132" t="s">
+        <v>240</v>
+      </c>
+      <c r="I132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>171</v>
+      </c>
+      <c r="G133" t="s">
+        <v>266</v>
+      </c>
+      <c r="H133" t="s">
+        <v>240</v>
+      </c>
+      <c r="I133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" t="s">
+        <v>261</v>
+      </c>
+      <c r="H134" t="s">
+        <v>240</v>
+      </c>
+      <c r="I134" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" t="s">
+        <v>166</v>
+      </c>
+      <c r="F135" t="s">
+        <v>159</v>
+      </c>
+      <c r="G135" t="s">
+        <v>262</v>
+      </c>
+      <c r="H135" t="s">
+        <v>240</v>
+      </c>
+      <c r="I135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" t="s">
+        <v>160</v>
+      </c>
+      <c r="G136" t="s">
+        <v>267</v>
+      </c>
+      <c r="H136" t="s">
+        <v>240</v>
+      </c>
+      <c r="I136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>161</v>
+      </c>
+      <c r="G137" t="s">
+        <v>266</v>
+      </c>
+      <c r="H137" t="s">
+        <v>240</v>
+      </c>
+      <c r="I137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" t="s">
+        <v>84</v>
+      </c>
+      <c r="F138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" t="s">
+        <v>266</v>
+      </c>
+      <c r="H138" t="s">
+        <v>240</v>
+      </c>
+      <c r="I138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>172</v>
+      </c>
+      <c r="G139" t="s">
+        <v>263</v>
+      </c>
+      <c r="H139" t="s">
+        <v>240</v>
+      </c>
+      <c r="I139" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>163</v>
+      </c>
+      <c r="G140" t="s">
         <v>245</v>
       </c>
-      <c r="H131" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" t="s">
-        <v>186</v>
-      </c>
-      <c r="G132" t="s">
-        <v>277</v>
-      </c>
-      <c r="H132" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" t="s">
-        <v>187</v>
-      </c>
-      <c r="G133" t="s">
-        <v>273</v>
-      </c>
-      <c r="H133" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" t="s">
-        <v>225</v>
-      </c>
-      <c r="E134" t="s">
-        <v>222</v>
-      </c>
-      <c r="G134" t="s">
-        <v>242</v>
-      </c>
-      <c r="H134" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" t="s">
-        <v>225</v>
-      </c>
-      <c r="D135" t="s">
-        <v>188</v>
-      </c>
-      <c r="G135" t="s">
-        <v>279</v>
-      </c>
-      <c r="H135" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>173</v>
-      </c>
-      <c r="B136" t="s">
-        <v>225</v>
-      </c>
-      <c r="D136" t="s">
-        <v>189</v>
-      </c>
-      <c r="G136" t="s">
-        <v>233</v>
-      </c>
-      <c r="H136" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" t="s">
-        <v>190</v>
-      </c>
-      <c r="G137" t="s">
-        <v>245</v>
-      </c>
-      <c r="H137" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>173</v>
-      </c>
-      <c r="B138" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" t="s">
-        <v>191</v>
-      </c>
-      <c r="G138" t="s">
-        <v>277</v>
-      </c>
-      <c r="H138" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>173</v>
-      </c>
-      <c r="B139" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139" t="s">
-        <v>192</v>
-      </c>
-      <c r="G139" t="s">
-        <v>276</v>
-      </c>
-      <c r="H139" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>173</v>
-      </c>
-      <c r="B140" t="s">
-        <v>225</v>
-      </c>
-      <c r="E140" t="s">
-        <v>223</v>
-      </c>
-      <c r="G140" t="s">
-        <v>282</v>
-      </c>
       <c r="H140" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D141" t="s">
-        <v>193</v>
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>164</v>
       </c>
       <c r="G141" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H141" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="E142" t="s">
+        <v>216</v>
       </c>
       <c r="G142" t="s">
         <v>233</v>
@@ -4162,84 +4756,123 @@
       <c r="H142" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="E143" t="s">
+        <v>217</v>
       </c>
       <c r="G143" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H143" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>196</v>
+        <v>176</v>
+      </c>
+      <c r="E144" t="s">
+        <v>218</v>
       </c>
       <c r="G144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H144" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="E145" t="s">
+        <v>219</v>
       </c>
       <c r="G145" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H145" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H146" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G147" t="s">
         <v>233</v>
@@ -4247,254 +4880,344 @@
       <c r="H147" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G148" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H148" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I148" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G149" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="H149" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G150" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H150" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151" t="s">
         <v>225</v>
       </c>
-      <c r="D151" t="s">
-        <v>203</v>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>220</v>
       </c>
       <c r="G151" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="H151" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I151" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>173</v>
       </c>
       <c r="B152" t="s">
         <v>225</v>
       </c>
-      <c r="D152" t="s">
-        <v>204</v>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>221</v>
       </c>
       <c r="G152" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="H152" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>225</v>
+        <v>283</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G153" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="H153" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I153" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>283</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="H154" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>225</v>
+        <v>283</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G155" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H155" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>226</v>
-      </c>
-      <c r="F156" t="s">
-        <v>208</v>
+        <v>283</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>186</v>
       </c>
       <c r="G156" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="H156" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
-      </c>
-      <c r="F157" t="s">
-        <v>209</v>
+        <v>283</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>187</v>
       </c>
       <c r="G157" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="H157" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
-      </c>
-      <c r="F158" t="s">
-        <v>210</v>
+        <v>225</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>222</v>
       </c>
       <c r="G158" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="H158" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
-      </c>
-      <c r="F159" t="s">
-        <v>211</v>
+        <v>284</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>188</v>
       </c>
       <c r="G159" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H159" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>173</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
-      </c>
-      <c r="F160" t="s">
-        <v>212</v>
+        <v>284</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>189</v>
       </c>
       <c r="G160" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="H160" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I160" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>173</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
-      </c>
-      <c r="F161" t="s">
-        <v>213</v>
+        <v>284</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>190</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H161" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I161" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
-      </c>
-      <c r="F162" t="s">
-        <v>214</v>
+        <v>284</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>191</v>
       </c>
       <c r="G162" t="s">
         <v>273</v>
@@ -4502,111 +5225,688 @@
       <c r="H162" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>173</v>
       </c>
       <c r="B163" t="s">
+        <v>284</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>192</v>
+      </c>
+      <c r="G163" t="s">
+        <v>272</v>
+      </c>
+      <c r="H163" t="s">
+        <v>240</v>
+      </c>
+      <c r="I163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>223</v>
+      </c>
+      <c r="G164" t="s">
+        <v>278</v>
+      </c>
+      <c r="H164" t="s">
+        <v>240</v>
+      </c>
+      <c r="I164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165" t="s">
+        <v>274</v>
+      </c>
+      <c r="H165" t="s">
+        <v>240</v>
+      </c>
+      <c r="I165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>194</v>
+      </c>
+      <c r="G166" t="s">
+        <v>233</v>
+      </c>
+      <c r="H166" t="s">
+        <v>234</v>
+      </c>
+      <c r="I166" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>285</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>195</v>
+      </c>
+      <c r="G167" t="s">
+        <v>242</v>
+      </c>
+      <c r="H167" t="s">
+        <v>242</v>
+      </c>
+      <c r="I167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>196</v>
+      </c>
+      <c r="G168" t="s">
+        <v>273</v>
+      </c>
+      <c r="H168" t="s">
+        <v>240</v>
+      </c>
+      <c r="I168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>197</v>
+      </c>
+      <c r="G169" t="s">
+        <v>269</v>
+      </c>
+      <c r="H169" t="s">
+        <v>240</v>
+      </c>
+      <c r="I169" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>286</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>198</v>
+      </c>
+      <c r="G170" t="s">
+        <v>275</v>
+      </c>
+      <c r="H170" t="s">
+        <v>240</v>
+      </c>
+      <c r="I170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>286</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>199</v>
+      </c>
+      <c r="G171" t="s">
+        <v>233</v>
+      </c>
+      <c r="H171" t="s">
+        <v>234</v>
+      </c>
+      <c r="I171" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>200</v>
+      </c>
+      <c r="G172" t="s">
+        <v>242</v>
+      </c>
+      <c r="H172" t="s">
+        <v>242</v>
+      </c>
+      <c r="I172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>286</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>201</v>
+      </c>
+      <c r="G173" t="s">
+        <v>273</v>
+      </c>
+      <c r="H173" t="s">
+        <v>240</v>
+      </c>
+      <c r="I173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>286</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>202</v>
+      </c>
+      <c r="G174" t="s">
+        <v>272</v>
+      </c>
+      <c r="H174" t="s">
+        <v>240</v>
+      </c>
+      <c r="I174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>287</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>203</v>
+      </c>
+      <c r="G175" t="s">
+        <v>274</v>
+      </c>
+      <c r="H175" t="s">
+        <v>240</v>
+      </c>
+      <c r="I175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>287</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>204</v>
+      </c>
+      <c r="G176" t="s">
+        <v>233</v>
+      </c>
+      <c r="H176" t="s">
+        <v>234</v>
+      </c>
+      <c r="I176" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>287</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>205</v>
+      </c>
+      <c r="G177" t="s">
+        <v>242</v>
+      </c>
+      <c r="H177" t="s">
+        <v>242</v>
+      </c>
+      <c r="I177" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" t="s">
+        <v>287</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>206</v>
+      </c>
+      <c r="G178" t="s">
+        <v>273</v>
+      </c>
+      <c r="H178" t="s">
+        <v>240</v>
+      </c>
+      <c r="I178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>287</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>207</v>
+      </c>
+      <c r="G179" t="s">
+        <v>288</v>
+      </c>
+      <c r="H179" t="s">
+        <v>240</v>
+      </c>
+      <c r="I179" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" t="s">
         <v>226</v>
       </c>
-      <c r="F163" t="s">
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>208</v>
+      </c>
+      <c r="G180" t="s">
+        <v>233</v>
+      </c>
+      <c r="H180" t="s">
+        <v>234</v>
+      </c>
+      <c r="I180" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181" t="s">
+        <v>226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>209</v>
+      </c>
+      <c r="G181" t="s">
+        <v>242</v>
+      </c>
+      <c r="H181" t="s">
+        <v>242</v>
+      </c>
+      <c r="I181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>210</v>
+      </c>
+      <c r="G182" t="s">
+        <v>273</v>
+      </c>
+      <c r="H182" t="s">
+        <v>240</v>
+      </c>
+      <c r="I182" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>173</v>
+      </c>
+      <c r="B183" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>211</v>
+      </c>
+      <c r="G183" t="s">
+        <v>274</v>
+      </c>
+      <c r="H183" t="s">
+        <v>240</v>
+      </c>
+      <c r="I183" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" t="s">
+        <v>226</v>
+      </c>
+      <c r="C184" t="s">
+        <v>166</v>
+      </c>
+      <c r="F184" t="s">
+        <v>212</v>
+      </c>
+      <c r="G184" t="s">
+        <v>277</v>
+      </c>
+      <c r="H184" t="s">
+        <v>240</v>
+      </c>
+      <c r="I184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>173</v>
+      </c>
+      <c r="B185" t="s">
+        <v>226</v>
+      </c>
+      <c r="C185" t="s">
+        <v>105</v>
+      </c>
+      <c r="F185" t="s">
+        <v>213</v>
+      </c>
+      <c r="G185" t="s">
+        <v>242</v>
+      </c>
+      <c r="H185" t="s">
+        <v>242</v>
+      </c>
+      <c r="I185" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>173</v>
+      </c>
+      <c r="B186" t="s">
+        <v>226</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s">
+        <v>214</v>
+      </c>
+      <c r="G186" t="s">
+        <v>269</v>
+      </c>
+      <c r="H186" t="s">
+        <v>240</v>
+      </c>
+      <c r="I186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>173</v>
+      </c>
+      <c r="B187" t="s">
+        <v>226</v>
+      </c>
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+      <c r="F187" t="s">
         <v>215</v>
       </c>
-      <c r="G163" t="s">
-        <v>273</v>
-      </c>
-      <c r="H163" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="G187" t="s">
+        <v>269</v>
+      </c>
+      <c r="H187" t="s">
+        <v>240</v>
+      </c>
+      <c r="I187" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>227</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C188" t="s">
         <v>8</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E188" t="s">
         <v>228</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G188" t="s">
         <v>233</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H188" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="I188" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>227</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C189" t="s">
         <v>6</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E189" t="s">
         <v>229</v>
       </c>
-      <c r="G165" t="s">
-        <v>245</v>
-      </c>
-      <c r="H165" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="G189" t="s">
+        <v>242</v>
+      </c>
+      <c r="H189" t="s">
+        <v>242</v>
+      </c>
+      <c r="I189" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>227</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C190" t="s">
         <v>9</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E190" t="s">
         <v>230</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G190" t="s">
+        <v>289</v>
+      </c>
+      <c r="H190" t="s">
+        <v>290</v>
+      </c>
+      <c r="I190" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>227</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>231</v>
+      </c>
+      <c r="G191" t="s">
+        <v>246</v>
+      </c>
+      <c r="H191" t="s">
+        <v>240</v>
+      </c>
+      <c r="I191" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>227</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" t="s">
         <v>241</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H192" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>227</v>
-      </c>
-      <c r="C167" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" t="s">
-        <v>231</v>
-      </c>
-      <c r="G167" t="s">
-        <v>250</v>
-      </c>
-      <c r="H167" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>227</v>
-      </c>
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" t="s">
-        <v>232</v>
-      </c>
-      <c r="G168" t="s">
-        <v>244</v>
-      </c>
-      <c r="H168" t="s">
-        <v>244</v>
+      <c r="I192" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H168" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}"/>
+  <autoFilter ref="A1:H192" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/pathways/data/final_energy_mapping.xlsx
+++ b/pathways/data/final_energy_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/pathways/pathways/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1E476-59B0-5F44-8473-30EFDEAA49A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA9681E-43A5-1545-BF00-75865E3BD24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{B564EF07-4632-0E48-BA36-31480B320BC9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="320">
   <si>
     <t>sector</t>
   </si>
@@ -993,6 +993,12 @@
   </si>
   <si>
     <t>Commercial (space heating)</t>
+  </si>
+  <si>
+    <t>electricity, used in passenger car</t>
+  </si>
+  <si>
+    <t>electricity, used in heavy-duty vehicle</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1398,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1513,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1951,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2227,7 +2234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2401,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +2424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2763,7 +2770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2855,7 +2862,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2885,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2976,7 +2983,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3127,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3146,7 +3153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3261,7 +3268,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3284,7 +3291,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3307,7 +3314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3389,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3415,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3487,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +3602,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3664,7 +3671,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3694,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3717,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3825,7 +3832,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -3894,7 +3901,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -3917,7 +3924,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>151</v>
       </c>
@@ -3986,7 +3993,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -4032,7 +4039,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>151</v>
       </c>
@@ -4101,7 +4108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>151</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>151</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>151</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -4426,7 +4433,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>151</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -4619,7 +4626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -4642,7 +4649,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -4688,7 +4695,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4711,7 +4718,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>216</v>
       </c>
       <c r="G142" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="H142" t="s">
         <v>234</v>
@@ -4967,7 +4974,7 @@
         <v>220</v>
       </c>
       <c r="G151" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H151" t="s">
         <v>234</v>
@@ -5036,7 +5043,7 @@
         <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H154" t="s">
         <v>234</v>
@@ -5312,7 +5319,7 @@
         <v>194</v>
       </c>
       <c r="G166" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H166" t="s">
         <v>234</v>
@@ -5634,7 +5641,7 @@
         <v>208</v>
       </c>
       <c r="G180" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H180" t="s">
         <v>234</v>
@@ -5804,7 +5811,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -5824,7 +5831,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>227</v>
       </c>
@@ -5844,7 +5851,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>227</v>
       </c>
@@ -5864,7 +5871,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>227</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>227</v>
       </c>
@@ -5905,7 +5912,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H192" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}"/>
+  <autoFilter ref="A1:H192" xr:uid="{F80533DB-6C92-414F-B344-F3268D43CD18}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Transport"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
